--- a/01 - Notes/CEC t.d3.xlsx
+++ b/01 - Notes/CEC t.d3.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="13" documentId="8_{5ECD0E83-ABB0-4A21-8561-9757E13480E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F261D072-9893-40F3-A256-2DEADA663597}"/>
   <bookViews>
-    <workbookView xWindow="-67320" yWindow="2385" windowWidth="29040" windowHeight="15720" xr2:uid="{66095640-EC33-4E95-AA1F-CCB5A2EA6033}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="23520" xr2:uid="{66095640-EC33-4E95-AA1F-CCB5A2EA6033}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -312,67 +312,64 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -708,10 +705,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA83865D-092E-408F-BE92-14AA5109AD47}">
-  <dimension ref="A1:Q28"/>
+  <dimension ref="A1:M27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="A2" sqref="A2:M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -720,1020 +717,989 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
     </row>
     <row r="2" spans="1:13" s="1" customFormat="1" ht="27.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12" t="s">
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="13"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="17"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="14"/>
-      <c r="B4" s="15" t="s">
+      <c r="A4" s="19"/>
+      <c r="B4" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15" t="s">
+      <c r="C4" s="12"/>
+      <c r="D4" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15" t="s">
+      <c r="E4" s="12"/>
+      <c r="F4" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15" t="s">
+      <c r="G4" s="12"/>
+      <c r="H4" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15" t="s">
+      <c r="I4" s="12"/>
+      <c r="J4" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15" t="s">
+      <c r="K4" s="12"/>
+      <c r="L4" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="M4" s="16"/>
+      <c r="M4" s="13"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="14"/>
-      <c r="B5" s="17" t="s">
+      <c r="A5" s="19"/>
+      <c r="B5" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="D5" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="17" t="s">
+      <c r="E5" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="17" t="s">
+      <c r="F5" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="17" t="s">
+      <c r="G5" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="17" t="s">
+      <c r="H5" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="17" t="s">
+      <c r="I5" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="J5" s="17" t="s">
+      <c r="J5" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="K5" s="17" t="s">
+      <c r="K5" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="L5" s="17" t="s">
+      <c r="L5" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="M5" s="18" t="s">
+      <c r="M5" s="9" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="7">
+      <c r="A6" s="4">
         <v>14</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="3">
         <v>10.199999999999999</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="3">
         <v>10.199999999999999</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="3">
         <v>9.92</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="3">
         <v>9.67</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6" s="3">
         <v>10</v>
       </c>
-      <c r="G6" s="6">
+      <c r="G6" s="3">
         <v>9.67</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="H6" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="I6" s="6" t="s">
+      <c r="I6" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J6" s="6" t="s">
+      <c r="J6" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="K6" s="6" t="s">
+      <c r="K6" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L6" s="6" t="s">
+      <c r="L6" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="M6" s="10" t="s">
+      <c r="M6" s="7" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="7">
+      <c r="A7" s="4">
         <v>12</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="3">
         <v>6.38</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="3">
         <v>6.38</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="3">
         <v>6.25</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="3">
         <v>6.1</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7" s="3">
         <v>6.26</v>
       </c>
-      <c r="G7" s="6">
+      <c r="G7" s="3">
         <v>6.11</v>
       </c>
-      <c r="H7" s="6">
+      <c r="H7" s="3">
         <v>10.5</v>
       </c>
-      <c r="I7" s="6">
+      <c r="I7" s="3">
         <v>10.5</v>
       </c>
-      <c r="J7" s="6">
+      <c r="J7" s="3">
         <v>10.3</v>
       </c>
-      <c r="K7" s="6">
+      <c r="K7" s="3">
         <v>10</v>
       </c>
-      <c r="L7" s="6">
+      <c r="L7" s="3">
         <v>10.3</v>
       </c>
-      <c r="M7" s="10">
+      <c r="M7" s="7">
         <v>9.99</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="7">
+      <c r="A8" s="4">
         <v>10</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="3">
         <v>4.03</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="3">
         <v>4.03</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="3">
         <v>3.96</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="3">
         <v>3.87</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F8" s="3">
         <v>3.96</v>
       </c>
-      <c r="G8" s="6">
+      <c r="G8" s="3">
         <v>3.87</v>
       </c>
-      <c r="H8" s="6">
+      <c r="H8" s="3">
         <v>6.58</v>
       </c>
-      <c r="I8" s="6">
+      <c r="I8" s="3">
         <v>3.87</v>
       </c>
-      <c r="J8" s="6">
+      <c r="J8" s="3">
         <v>6.58</v>
       </c>
-      <c r="K8" s="6">
+      <c r="K8" s="3">
         <v>6.58</v>
       </c>
-      <c r="L8" s="6">
+      <c r="L8" s="3">
         <v>6.44</v>
       </c>
-      <c r="M8" s="10">
+      <c r="M8" s="7">
         <v>6.28</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="7">
+      <c r="A9" s="4">
         <v>8</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="3">
         <v>2.54</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="3">
         <v>2.54</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="3">
         <v>2.5</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="3">
         <v>2.4500000000000002</v>
       </c>
-      <c r="F9" s="6">
+      <c r="F9" s="3">
         <v>2.5099999999999998</v>
       </c>
-      <c r="G9" s="6">
+      <c r="G9" s="3">
         <v>2.4500000000000002</v>
       </c>
-      <c r="H9" s="6">
+      <c r="H9" s="3">
         <v>4.1399999999999997</v>
       </c>
-      <c r="I9" s="6">
+      <c r="I9" s="3">
         <v>2.4500000000000002</v>
       </c>
-      <c r="J9" s="6">
+      <c r="J9" s="3">
         <v>4.1399999999999997</v>
       </c>
-      <c r="K9" s="6">
+      <c r="K9" s="3">
         <v>4.1399999999999997</v>
       </c>
-      <c r="L9" s="6">
+      <c r="L9" s="3">
         <v>4.07</v>
       </c>
-      <c r="M9" s="10">
+      <c r="M9" s="7">
         <v>3.97</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="7">
+      <c r="A10" s="4">
         <v>6</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10" s="3">
         <v>1.59</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="3">
         <v>1.59</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="3">
         <v>1.58</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" s="3">
         <v>1.55</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F10" s="3">
         <v>1.58</v>
       </c>
-      <c r="G10" s="6">
+      <c r="G10" s="3">
         <v>1.55</v>
       </c>
-      <c r="H10" s="6">
+      <c r="H10" s="3">
         <v>2.62</v>
       </c>
-      <c r="I10" s="6">
+      <c r="I10" s="3">
         <v>1.55</v>
       </c>
-      <c r="J10" s="6">
+      <c r="J10" s="3">
         <v>2.62</v>
       </c>
-      <c r="K10" s="6">
+      <c r="K10" s="3">
         <v>2.62</v>
       </c>
-      <c r="L10" s="6">
+      <c r="L10" s="3">
         <v>2.58</v>
       </c>
-      <c r="M10" s="10">
+      <c r="M10" s="7">
         <v>2.5299999999999998</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="7">
+      <c r="A11" s="4">
         <v>4</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11" s="3">
         <v>1.01</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="3">
         <v>1.01</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11" s="3">
         <v>1.01</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E11" s="3">
         <v>0.98699999999999999</v>
       </c>
-      <c r="F11" s="6">
+      <c r="F11" s="3">
         <v>1.01</v>
       </c>
-      <c r="G11" s="6">
+      <c r="G11" s="3">
         <v>1</v>
       </c>
-      <c r="H11" s="6">
+      <c r="H11" s="3">
         <v>1.65</v>
       </c>
-      <c r="I11" s="6">
+      <c r="I11" s="3">
         <v>1</v>
       </c>
-      <c r="J11" s="6">
+      <c r="J11" s="3">
         <v>1.65</v>
       </c>
-      <c r="K11" s="6">
+      <c r="K11" s="3">
         <v>1.65</v>
       </c>
-      <c r="L11" s="6">
+      <c r="L11" s="3">
         <v>1.63</v>
       </c>
-      <c r="M11" s="10">
+      <c r="M11" s="7">
         <v>1.61</v>
       </c>
     </row>
-    <row r="12" spans="1:13" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="7">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
         <v>3</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B12" s="3">
         <v>0.79200000000000004</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C12" s="3">
         <v>0.79200000000000004</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D12" s="3">
         <v>0.79700000000000004</v>
       </c>
-      <c r="E12" s="6">
+      <c r="E12" s="3">
         <v>0.78700000000000003</v>
       </c>
-      <c r="F12" s="6">
+      <c r="F12" s="3">
         <v>0.80100000000000005</v>
       </c>
-      <c r="G12" s="6">
+      <c r="G12" s="3">
         <v>0.79200000000000004</v>
       </c>
-      <c r="H12" s="6">
+      <c r="H12" s="3">
         <v>1.3</v>
       </c>
-      <c r="I12" s="6">
+      <c r="I12" s="3">
         <v>0.79200000000000004</v>
       </c>
-      <c r="J12" s="6">
+      <c r="J12" s="3">
         <v>1.3</v>
       </c>
-      <c r="K12" s="6">
+      <c r="K12" s="3">
         <v>1.3</v>
       </c>
-      <c r="L12" s="6">
+      <c r="L12" s="3">
         <v>1.27</v>
       </c>
-      <c r="M12" s="10">
+      <c r="M12" s="7">
         <v>1.3</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="7">
+      <c r="A13" s="4">
         <v>2</v>
       </c>
-      <c r="B13" s="6">
+      <c r="B13" s="3">
         <v>0.626</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C13" s="3">
         <v>0.627</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D13" s="3">
         <v>0.63600000000000001</v>
       </c>
-      <c r="E13" s="6">
+      <c r="E13" s="3">
         <v>0.629</v>
       </c>
-      <c r="F13" s="6">
+      <c r="F13" s="3">
         <v>0.63900000000000001</v>
       </c>
-      <c r="G13" s="6">
+      <c r="G13" s="3">
         <v>0.63500000000000001</v>
       </c>
-      <c r="H13" s="6">
+      <c r="H13" s="3">
         <v>1.04</v>
       </c>
-      <c r="I13" s="6">
+      <c r="I13" s="3">
         <v>0.63400000000000001</v>
       </c>
-      <c r="J13" s="6">
+      <c r="J13" s="3">
         <v>1.04</v>
       </c>
-      <c r="K13" s="6">
+      <c r="K13" s="3">
         <v>1.04</v>
       </c>
-      <c r="L13" s="6">
+      <c r="L13" s="3">
         <v>1.04</v>
       </c>
-      <c r="M13" s="10">
+      <c r="M13" s="7">
         <v>1.03</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="7">
+      <c r="A14" s="4">
         <v>1</v>
       </c>
-      <c r="B14" s="6">
+      <c r="B14" s="3">
         <v>0.5</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C14" s="3">
         <v>0.5</v>
       </c>
-      <c r="D14" s="6">
+      <c r="D14" s="3">
         <v>0.51200000000000001</v>
       </c>
-      <c r="E14" s="6">
+      <c r="E14" s="3">
         <v>0.50900000000000001</v>
       </c>
-      <c r="F14" s="6">
+      <c r="F14" s="3">
         <v>0.51600000000000001</v>
       </c>
-      <c r="G14" s="6">
+      <c r="G14" s="3">
         <v>0.51500000000000001</v>
       </c>
-      <c r="H14" s="6">
+      <c r="H14" s="3">
         <v>0.82</v>
       </c>
-      <c r="I14" s="6">
+      <c r="I14" s="3">
         <v>0.51500000000000001</v>
       </c>
-      <c r="J14" s="6">
+      <c r="J14" s="3">
         <v>0.82</v>
       </c>
-      <c r="K14" s="6">
+      <c r="K14" s="3">
         <v>0.82</v>
       </c>
-      <c r="L14" s="6">
+      <c r="L14" s="3">
         <v>0.82299999999999995</v>
       </c>
-      <c r="M14" s="10">
+      <c r="M14" s="7">
         <v>0.81799999999999995</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B15" s="6">
+      <c r="B15" s="3">
         <v>0.39500000000000002</v>
       </c>
-      <c r="C15" s="6">
+      <c r="C15" s="3">
         <v>0.39600000000000002</v>
       </c>
-      <c r="D15" s="6">
+      <c r="D15" s="3">
         <v>0.41</v>
       </c>
-      <c r="E15" s="6">
+      <c r="E15" s="3">
         <v>0.40899999999999997</v>
       </c>
-      <c r="F15" s="6">
+      <c r="F15" s="3">
         <v>0.41399999999999998</v>
       </c>
-      <c r="G15" s="6">
+      <c r="G15" s="3">
         <v>0.41499999999999998</v>
       </c>
-      <c r="H15" s="6">
+      <c r="H15" s="3">
         <v>0.65100000000000002</v>
       </c>
-      <c r="I15" s="6">
+      <c r="I15" s="3">
         <v>0.41399999999999998</v>
       </c>
-      <c r="J15" s="6">
+      <c r="J15" s="3">
         <v>0.65100000000000002</v>
       </c>
-      <c r="K15" s="6">
+      <c r="K15" s="3">
         <v>0.65200000000000002</v>
       </c>
-      <c r="L15" s="6">
+      <c r="L15" s="3">
         <v>0.65900000000000003</v>
       </c>
-      <c r="M15" s="10">
+      <c r="M15" s="7">
         <v>0.65700000000000003</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="8" t="s">
+      <c r="A16" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B16" s="6">
+      <c r="B16" s="3">
         <v>0.314</v>
       </c>
-      <c r="C16" s="6">
+      <c r="C16" s="3">
         <v>0.316</v>
       </c>
-      <c r="D16" s="6">
+      <c r="D16" s="3">
         <v>0.33100000000000002</v>
       </c>
-      <c r="E16" s="6">
+      <c r="E16" s="3">
         <v>0.33200000000000002</v>
       </c>
-      <c r="F16" s="6">
+      <c r="F16" s="3">
         <v>0.33500000000000002</v>
       </c>
-      <c r="G16" s="6">
+      <c r="G16" s="3">
         <v>0.33800000000000002</v>
       </c>
-      <c r="H16" s="6">
+      <c r="H16" s="3">
         <v>0.51600000000000001</v>
       </c>
-      <c r="I16" s="6">
+      <c r="I16" s="3">
         <v>0.33500000000000002</v>
       </c>
-      <c r="J16" s="6">
+      <c r="J16" s="3">
         <v>0.50700000000000001</v>
       </c>
-      <c r="K16" s="6">
+      <c r="K16" s="3">
         <v>0.50700000000000001</v>
       </c>
-      <c r="L16" s="6">
+      <c r="L16" s="3">
         <v>0.51200000000000001</v>
       </c>
-      <c r="M16" s="10">
+      <c r="M16" s="7">
         <v>0.53</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A17" s="8" t="s">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B17" s="6">
+      <c r="B17" s="3">
         <v>0.249</v>
       </c>
-      <c r="C17" s="6">
+      <c r="C17" s="3">
         <v>0.251</v>
       </c>
-      <c r="D17" s="6">
+      <c r="D17" s="3">
         <v>0.26700000000000002</v>
       </c>
-      <c r="E17" s="6">
+      <c r="E17" s="3">
         <v>0.27</v>
       </c>
-      <c r="F17" s="6">
+      <c r="F17" s="3">
         <v>0.27100000000000002</v>
       </c>
-      <c r="G17" s="6">
+      <c r="G17" s="3">
         <v>0.27500000000000002</v>
       </c>
-      <c r="H17" s="6">
+      <c r="H17" s="3">
         <v>0.40799999999999997</v>
       </c>
-      <c r="I17" s="6">
+      <c r="I17" s="3">
         <v>0.27500000000000002</v>
       </c>
-      <c r="J17" s="6">
+      <c r="J17" s="3">
         <v>0.40799999999999997</v>
       </c>
-      <c r="K17" s="6">
+      <c r="K17" s="3">
         <v>0.40899999999999997</v>
       </c>
-      <c r="L17" s="6">
+      <c r="L17" s="3">
         <v>0.42</v>
       </c>
-      <c r="M17" s="10">
+      <c r="M17" s="7">
         <v>0.42499999999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A18" s="8" t="s">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B18" s="6">
+      <c r="B18" s="3">
         <v>0.19700000000000001</v>
       </c>
-      <c r="C18" s="6">
+      <c r="C18" s="3">
         <v>0.2</v>
       </c>
-      <c r="D18" s="6">
+      <c r="D18" s="3">
         <v>0.217</v>
       </c>
-      <c r="E18" s="6">
+      <c r="E18" s="3">
         <v>0.221</v>
       </c>
-      <c r="F18" s="6">
+      <c r="F18" s="3">
         <v>0.221</v>
       </c>
-      <c r="G18" s="6">
+      <c r="G18" s="3">
         <v>0.22600000000000001</v>
       </c>
-      <c r="H18" s="6">
+      <c r="H18" s="3">
         <v>0.32600000000000001</v>
       </c>
-      <c r="I18" s="6">
+      <c r="I18" s="3">
         <v>0.22600000000000001</v>
       </c>
-      <c r="J18" s="6">
+      <c r="J18" s="3">
         <v>0.32600000000000001</v>
       </c>
-      <c r="K18" s="6">
+      <c r="K18" s="3">
         <v>0.32700000000000001</v>
       </c>
-      <c r="L18" s="6">
+      <c r="L18" s="3">
         <v>0.34100000000000003</v>
       </c>
-      <c r="M18" s="10">
+      <c r="M18" s="7">
         <v>0.34699999999999998</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A19" s="7">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="4">
         <v>250</v>
       </c>
-      <c r="B19" s="6">
+      <c r="B19" s="3">
         <v>0.16700000000000001</v>
       </c>
-      <c r="C19" s="6">
+      <c r="C19" s="3">
         <v>0.17100000000000001</v>
       </c>
-      <c r="D19" s="6">
+      <c r="D19" s="3">
         <v>0.188</v>
       </c>
-      <c r="E19" s="6">
+      <c r="E19" s="3">
         <v>0.193</v>
       </c>
-      <c r="F19" s="6">
+      <c r="F19" s="3">
         <v>0.192</v>
       </c>
-      <c r="G19" s="6">
+      <c r="G19" s="3">
         <v>0.19800000000000001</v>
       </c>
-      <c r="H19" s="6">
+      <c r="H19" s="3">
         <v>0.27500000000000002</v>
       </c>
-      <c r="I19" s="6">
+      <c r="I19" s="3">
         <v>0.19700000000000001</v>
       </c>
-      <c r="J19" s="6">
+      <c r="J19" s="3">
         <v>0.27500000000000002</v>
       </c>
-      <c r="K19" s="6">
+      <c r="K19" s="3">
         <v>0.27700000000000002</v>
       </c>
-      <c r="L19" s="6">
+      <c r="L19" s="3">
         <v>0.29099999999999998</v>
       </c>
-      <c r="M19" s="10">
+      <c r="M19" s="7">
         <v>0.29499999999999998</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A20" s="7">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="4">
         <v>300</v>
       </c>
-      <c r="B20" s="6">
+      <c r="B20" s="3">
         <v>0.14000000000000001</v>
       </c>
-      <c r="C20" s="6">
+      <c r="C20" s="3">
         <v>0.14399999999999999</v>
       </c>
-      <c r="D20" s="6">
+      <c r="D20" s="3">
         <v>0.16200000000000001</v>
       </c>
-      <c r="E20" s="6">
+      <c r="E20" s="3">
         <v>0.16700000000000001</v>
       </c>
-      <c r="F20" s="6">
+      <c r="F20" s="3">
         <v>0.16600000000000001</v>
       </c>
-      <c r="G20" s="6">
+      <c r="G20" s="3">
         <v>0.17199999999999999</v>
       </c>
-      <c r="H20" s="6">
+      <c r="H20" s="3">
         <v>0.22900000000000001</v>
       </c>
-      <c r="I20" s="6">
+      <c r="I20" s="3">
         <v>0.17199999999999999</v>
       </c>
-      <c r="J20" s="6">
+      <c r="J20" s="3">
         <v>0.22900000000000001</v>
       </c>
-      <c r="K20" s="6">
+      <c r="K20" s="3">
         <v>0.22900000000000001</v>
       </c>
-      <c r="L20" s="6">
+      <c r="L20" s="3">
         <v>0.247</v>
       </c>
-      <c r="M20" s="10">
+      <c r="M20" s="7">
         <v>0.255</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A21" s="7">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="4">
         <v>350</v>
       </c>
-      <c r="B21" s="6">
+      <c r="B21" s="3">
         <v>0.12</v>
       </c>
-      <c r="C21" s="6">
+      <c r="C21" s="3">
         <v>0.125</v>
       </c>
-      <c r="D21" s="6">
+      <c r="D21" s="3">
         <v>0.14299999999999999</v>
       </c>
-      <c r="E21" s="6">
+      <c r="E21" s="3">
         <v>0.14799999999999999</v>
       </c>
-      <c r="F21" s="6">
+      <c r="F21" s="3">
         <v>0.14699999999999999</v>
       </c>
-      <c r="G21" s="6">
+      <c r="G21" s="3">
         <v>0.154</v>
       </c>
-      <c r="H21" s="6">
+      <c r="H21" s="3">
         <v>0.19600000000000001</v>
       </c>
-      <c r="I21" s="6">
+      <c r="I21" s="3">
         <v>0.154</v>
       </c>
-      <c r="J21" s="6">
+      <c r="J21" s="3">
         <v>0.19600000000000001</v>
       </c>
-      <c r="K21" s="6">
+      <c r="K21" s="3">
         <v>0.19600000000000001</v>
       </c>
-      <c r="L21" s="6">
+      <c r="L21" s="3">
         <v>0.215</v>
       </c>
-      <c r="M21" s="10">
+      <c r="M21" s="7">
         <v>0.224</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A22" s="7">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" s="4">
         <v>400</v>
       </c>
-      <c r="B22" s="6">
+      <c r="B22" s="3">
         <v>0.105</v>
       </c>
-      <c r="C22" s="6">
+      <c r="C22" s="3">
         <v>0.111</v>
       </c>
-      <c r="D22" s="6">
+      <c r="D22" s="3">
         <v>0.129</v>
       </c>
-      <c r="E22" s="6">
+      <c r="E22" s="3">
         <v>0.13500000000000001</v>
       </c>
-      <c r="F22" s="6">
+      <c r="F22" s="3">
         <v>0.13300000000000001</v>
       </c>
-      <c r="G22" s="6">
+      <c r="G22" s="3">
         <v>0.14000000000000001</v>
       </c>
-      <c r="H22" s="6">
+      <c r="H22" s="3">
         <v>0.17199999999999999</v>
       </c>
-      <c r="I22" s="6">
+      <c r="I22" s="3">
         <v>0.13300000000000001</v>
       </c>
-      <c r="J22" s="6">
+      <c r="J22" s="3">
         <v>0.17199999999999999</v>
       </c>
-      <c r="K22" s="6">
+      <c r="K22" s="3">
         <v>0.17499999999999999</v>
       </c>
-      <c r="L22" s="6">
+      <c r="L22" s="3">
         <v>0.191</v>
       </c>
-      <c r="M22" s="10">
+      <c r="M22" s="7">
         <v>0.19500000000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A23" s="7">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" s="4">
         <v>500</v>
       </c>
-      <c r="B23" s="6">
+      <c r="B23" s="3">
         <v>8.3599999999999994E-2</v>
       </c>
-      <c r="C23" s="6">
+      <c r="C23" s="3">
         <v>9.1200000000000003E-2</v>
       </c>
-      <c r="D23" s="6">
+      <c r="D23" s="3">
         <v>0.11</v>
       </c>
-      <c r="E23" s="6">
+      <c r="E23" s="3">
         <v>0.11600000000000001</v>
       </c>
-      <c r="F23" s="6">
+      <c r="F23" s="3">
         <v>0.114</v>
       </c>
-      <c r="G23" s="6">
+      <c r="G23" s="3">
         <v>0.121</v>
       </c>
-      <c r="H23" s="6">
+      <c r="H23" s="3">
         <v>0.13800000000000001</v>
       </c>
-      <c r="I23" s="6">
+      <c r="I23" s="3">
         <v>0.121</v>
       </c>
-      <c r="J23" s="6">
+      <c r="J23" s="3">
         <v>0.13800000000000001</v>
       </c>
-      <c r="K23" s="6">
+      <c r="K23" s="3">
         <v>0.14099999999999999</v>
       </c>
-      <c r="L23" s="6">
+      <c r="L23" s="3">
         <v>0.158</v>
       </c>
-      <c r="M23" s="10">
+      <c r="M23" s="7">
         <v>0.16200000000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A24" s="7">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" s="4">
         <v>600</v>
       </c>
-      <c r="B24" s="6">
+      <c r="B24" s="3">
         <v>6.9699999999999998E-2</v>
       </c>
-      <c r="C24" s="6">
+      <c r="C24" s="3">
         <v>7.85E-2</v>
       </c>
-      <c r="D24" s="6">
+      <c r="D24" s="3">
         <v>9.69E-2</v>
       </c>
-      <c r="E24" s="6">
+      <c r="E24" s="3">
         <v>0.104</v>
       </c>
-      <c r="F24" s="6">
+      <c r="F24" s="3">
         <v>0.10100000000000001</v>
       </c>
-      <c r="G24" s="6">
+      <c r="G24" s="3">
         <v>0.109</v>
       </c>
-      <c r="H24" s="6">
+      <c r="H24" s="3">
         <v>0.115</v>
       </c>
-      <c r="I24" s="6">
+      <c r="I24" s="3">
         <v>0.109</v>
       </c>
-      <c r="J24" s="6">
+      <c r="J24" s="3">
         <v>0.115</v>
       </c>
-      <c r="K24" s="6">
+      <c r="K24" s="3">
         <v>0.11899999999999999</v>
       </c>
-      <c r="L24" s="6">
+      <c r="L24" s="3">
         <v>0.13600000000000001</v>
       </c>
-      <c r="M24" s="10">
+      <c r="M24" s="7">
         <v>0.14699999999999999</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A25" s="7">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" s="4">
         <v>750</v>
       </c>
-      <c r="B25" s="6">
+      <c r="B25" s="3">
         <v>5.5800000000000002E-2</v>
       </c>
-      <c r="C25" s="6">
+      <c r="C25" s="3">
         <v>6.6799999999999998E-2</v>
       </c>
-      <c r="D25" s="6">
+      <c r="D25" s="3">
         <v>8.5000000000000006E-2</v>
       </c>
-      <c r="E25" s="6">
+      <c r="E25" s="3">
         <v>9.1499999999999998E-2</v>
       </c>
-      <c r="F25" s="6">
+      <c r="F25" s="3">
         <v>8.8900000000000007E-2</v>
       </c>
-      <c r="G25" s="6">
+      <c r="G25" s="3">
         <v>9.7000000000000003E-2</v>
       </c>
-      <c r="H25" s="6">
+      <c r="H25" s="3">
         <v>9.1600000000000001E-2</v>
       </c>
-      <c r="I25" s="6">
+      <c r="I25" s="3">
         <v>9.1499999999999998E-2</v>
       </c>
-      <c r="J25" s="6">
+      <c r="J25" s="3">
         <v>9.6799999999999997E-2</v>
       </c>
-      <c r="K25" s="6">
+      <c r="K25" s="3">
         <v>9.6799999999999997E-2</v>
       </c>
-      <c r="L25" s="6">
+      <c r="L25" s="3">
         <v>0.121</v>
       </c>
-      <c r="M25" s="10">
+      <c r="M25" s="7">
         <v>0.11899999999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="9">
+    <row r="26" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="6">
         <v>1000</v>
       </c>
-      <c r="B26" s="21">
+      <c r="B26" s="10">
         <v>4.1700000000000001E-2</v>
       </c>
-      <c r="C26" s="21">
+      <c r="C26" s="10">
         <v>5.5800000000000002E-2</v>
       </c>
-      <c r="D26" s="21">
+      <c r="D26" s="10">
         <v>7.3899999999999993E-2</v>
       </c>
-      <c r="E26" s="21">
+      <c r="E26" s="10">
         <v>8.0500000000000002E-2</v>
       </c>
-      <c r="F26" s="21">
+      <c r="F26" s="10">
         <v>7.7799999999999994E-2</v>
       </c>
-      <c r="G26" s="21">
+      <c r="G26" s="10">
         <v>8.5999999999999993E-2</v>
       </c>
-      <c r="H26" s="21">
+      <c r="H26" s="10">
         <v>6.8599999999999994E-2</v>
       </c>
-      <c r="I26" s="21">
+      <c r="I26" s="10">
         <v>7.5800000000000006E-2</v>
       </c>
-      <c r="J26" s="21">
+      <c r="J26" s="10">
         <v>9.3299999999999994E-2</v>
       </c>
-      <c r="K26" s="21">
+      <c r="K26" s="10">
         <v>9.9400000000000002E-2</v>
       </c>
-      <c r="L26" s="21">
+      <c r="L26" s="10">
         <v>9.7299999999999998E-2</v>
       </c>
-      <c r="M26" s="22">
+      <c r="M26" s="11">
         <v>0.105</v>
       </c>
-      <c r="N26" s="20"/>
-      <c r="O26" s="20"/>
-      <c r="P26" s="20"/>
-      <c r="Q26" s="20"/>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A27" s="5"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="4"/>
-      <c r="I27" s="4"/>
-      <c r="J27" s="4"/>
-      <c r="K27" s="4"/>
-      <c r="L27" s="4"/>
-      <c r="M27" s="4"/>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A28" s="4"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
-      <c r="I28" s="4"/>
-      <c r="J28" s="4"/>
-      <c r="K28" s="4"/>
-      <c r="L28" s="4"/>
-      <c r="M28" s="4"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="11">
